--- a/biology/Médecine/Full_Signal/Full_Signal.xlsx
+++ b/biology/Médecine/Full_Signal/Full_Signal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Full Signal ou Plein Signal est un film documentaire américain réalisé par Talal Jabari, sorti le 1er décembre 2009 aux États-Unis et présenté le 25 novembre 2010 dans le cadre du 28e Festival international du film d'environnement en France[1]. 
-Le film met en évidence les risques sanitaires des télécommunications de type téléphonie mobile[2],[3] en ce qui concerne les conséquences du rayonnement électromagnétique sur la santé humaine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Full Signal ou Plein Signal est un film documentaire américain réalisé par Talal Jabari, sorti le 1er décembre 2009 aux États-Unis et présenté le 25 novembre 2010 dans le cadre du 28e Festival international du film d'environnement en France. 
+Le film met en évidence les risques sanitaires des télécommunications de type téléphonie mobile, en ce qui concerne les conséquences du rayonnement électromagnétique sur la santé humaine.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,9 +580,11 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce documentaire a été retenu en sélection dans plusieurs festivals et il a reçu plusieurs prix[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce documentaire a été retenu en sélection dans plusieurs festivals et il a reçu plusieurs prix :
 "Award du mérite" Accolade Competition 2010
 "Meilleur documentaire" 5th Myrtle Beach International Film Festival
 "Sélection officielle" 7th Big Sky Documentary Film Festival (en), Missoula MT
